--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="21000" windowHeight="9860"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
   <si>
     <t>ID</t>
   </si>
@@ -341,6 +341,18 @@
   </si>
   <si>
     <t>Discard equipment below red quality (excluding red)</t>
+  </si>
+  <si>
+    <t>_TextID_Reward</t>
+  </si>
+  <si>
+    <t>开启\n一个宝箱</t>
+  </si>
+  <si>
+    <t>Open a chest</t>
+  </si>
+  <si>
+    <t>一つ宝箱を\n開ける</t>
   </si>
 </sst>
 </file>
@@ -353,14 +365,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -816,48 +821,51 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -867,97 +875,94 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1285,13 +1290,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="31.1666666666667" customWidth="1"/>
@@ -1705,6 +1710,20 @@
         <v>108</v>
       </c>
     </row>
+    <row r="30" spans="1:4">
+      <c r="A30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B30" t="s">
+        <v>110</v>
+      </c>
+      <c r="C30" t="s">
+        <v>111</v>
+      </c>
+      <c r="D30" t="s">
+        <v>112</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="9860"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
   <si>
     <t>ID</t>
   </si>
@@ -353,6 +353,34 @@
   </si>
   <si>
     <t>一つ宝箱を\n開ける</t>
+  </si>
+  <si>
+    <t>_TextID_ChestQuantity</t>
+  </si>
+  <si>
+    <t>宝箱剩余:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Remaining Chests:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残りの宝箱:</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -365,13 +393,19 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="Segoe UI"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
@@ -824,10 +858,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -836,34 +870,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -875,102 +906,106 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1290,13 +1325,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="31.1666666666667" customWidth="1"/>
@@ -1724,6 +1759,20 @@
         <v>112</v>
       </c>
     </row>
+    <row r="31" ht="17.25" spans="1:4">
+      <c r="A31" t="s">
+        <v>113</v>
+      </c>
+      <c r="B31" t="s">
+        <v>114</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="28800" windowHeight="12410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
   <si>
     <t>ID</t>
   </si>
@@ -307,6 +307,17 @@
     <t>Will not discard any equipment</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>どんな装備も破棄しません</t>
+    </r>
+  </si>
+  <si>
     <t>_TextID_Blur</t>
   </si>
   <si>
@@ -316,6 +327,101 @@
     <t>Discard equipment below blue quality (excluding blue)</t>
   </si>
   <si>
+    <r>
+      <t>青以下</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>品質</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破棄（青色</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>含</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>まない</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>）</t>
+    </r>
+  </si>
+  <si>
     <t>_TextID_Purple</t>
   </si>
   <si>
@@ -325,6 +431,9 @@
     <t>Discard equipment below purple quality (excluding purple)</t>
   </si>
   <si>
+    <t>紫以下の品質の装備を破棄（紫色を含まない）</t>
+  </si>
+  <si>
     <t>_TextID_Yellow</t>
   </si>
   <si>
@@ -334,6 +443,9 @@
     <t>Discard equipment below Yellow quality (excluding Yellow)</t>
   </si>
   <si>
+    <t>黄以下の品質の装備を破棄（黄色を含まない）</t>
+  </si>
+  <si>
     <t>_TextID_Red</t>
   </si>
   <si>
@@ -343,16 +455,57 @@
     <t>Discard equipment below red quality (excluding red)</t>
   </si>
   <si>
-    <t>_TextID_Reward</t>
-  </si>
-  <si>
-    <t>开启\n一个宝箱</t>
-  </si>
-  <si>
-    <t>Open a chest</t>
-  </si>
-  <si>
-    <t>一つ宝箱を\n開ける</t>
+    <t>红以下の品質の装備を破棄（红色を含まない）</t>
+  </si>
+  <si>
+    <t>_TextID_Reward00</t>
+  </si>
+  <si>
+    <t>开启\n三个宝箱</t>
+  </si>
+  <si>
+    <t>Opened three chest</t>
+  </si>
+  <si>
+    <r>
+      <t>3つの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けた</t>
+    </r>
   </si>
   <si>
     <t>_TextID_ChestQuantity</t>
@@ -380,6 +533,86 @@
         <charset val="134"/>
       </rPr>
       <t>残りの宝箱:</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward01</t>
+  </si>
+  <si>
+    <t>装备四种不同装备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Equip four different items</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>異なる4つの装備を装備する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward02</t>
+  </si>
+  <si>
+    <t>开启过\n十个宝箱</t>
+  </si>
+  <si>
+    <t>Opened ten chest</t>
+  </si>
+  <si>
+    <t>10つ宝箱を\n開けた</t>
+  </si>
+  <si>
+    <t>_TextID_Reward03</t>
+  </si>
+  <si>
+    <t>开启过\n二十个宝箱</t>
+  </si>
+  <si>
+    <t>Opened twenty chest</t>
+  </si>
+  <si>
+    <t>20つ宝箱を\n開けた</t>
+  </si>
+  <si>
+    <t>_TextID_Reward04</t>
+  </si>
+  <si>
+    <t>通关第一关</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cleared the first stage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第1レベルクリア</t>
     </r>
   </si>
 </sst>
@@ -393,7 +626,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +638,18 @@
       <sz val="12"/>
       <color rgb="FF374151"/>
       <name val="Segoe UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF374151"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -858,10 +1103,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -870,37 +1115,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -909,102 +1148,111 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1325,13 +1573,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D34" sqref="D34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="31.1666666666667" customWidth="1"/>
@@ -1675,7 +1923,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" ht="15" spans="1:4">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1685,92 +1933,148 @@
       <c r="C25" t="s">
         <v>96</v>
       </c>
-      <c r="D25" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" ht="15" spans="1:4">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D26" t="s">
-        <v>99</v>
+        <v>100</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B27" t="s">
-        <v>101</v>
-      </c>
-      <c r="C27" s="1" t="s">
-        <v>102</v>
+        <v>103</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C28" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="C29" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" ht="15" spans="1:4">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="B30" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="C30" t="s">
-        <v>111</v>
-      </c>
-      <c r="D30" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="31" ht="17.25" spans="1:4">
+        <v>116</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" ht="17.5" spans="1:4">
       <c r="A31" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="B31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>116</v>
+        <v>119</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="32" ht="17.5" spans="1:4">
+      <c r="A32" t="s">
+        <v>122</v>
+      </c>
+      <c r="B32" t="s">
+        <v>123</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>127</v>
+      </c>
+      <c r="C33" t="s">
+        <v>128</v>
+      </c>
+      <c r="D33" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" t="s">
+        <v>130</v>
+      </c>
+      <c r="B34" t="s">
+        <v>131</v>
+      </c>
+      <c r="C34" t="s">
+        <v>132</v>
+      </c>
+      <c r="D34" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="35" ht="17.5" spans="1:4">
+      <c r="A35" t="s">
+        <v>134</v>
+      </c>
+      <c r="B35" t="s">
+        <v>135</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12410"/>
+    <workbookView windowWidth="28800" windowHeight="11940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="151">
   <si>
     <t>ID</t>
   </si>
@@ -241,7 +241,7 @@
     <t>_TextID_CanLoop</t>
   </si>
   <si>
-    <t>解锁\n自动</t>
+    <t>解锁\n自动开箱</t>
   </si>
   <si>
     <t>Auto\nopen chests</t>
@@ -308,13 +308,52 @@
   </si>
   <si>
     <r>
+      <t>どんな</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>装備</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>も</t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FF374151"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>どんな装備も破棄しません</t>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>破棄</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しません</t>
     </r>
   </si>
   <si>
@@ -328,6 +367,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>青以下</t>
     </r>
     <r>
@@ -458,162 +503,207 @@
     <t>红以下の品質の装備を破棄（红色を含まない）</t>
   </si>
   <si>
+    <t>_TextID_Achievement00</t>
+  </si>
+  <si>
+    <t>开启过\n3个宝箱</t>
+  </si>
+  <si>
+    <t>Opened 3 chest</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>3つの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>けた</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_ChestQuantity</t>
+  </si>
+  <si>
+    <t>宝箱剩余:</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Remaining Chests:</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>残りの宝箱:</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement01</t>
+  </si>
+  <si>
+    <t>装备四种不同装备</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Equip four different items</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>異なる4つの装備を装備する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement02</t>
+  </si>
+  <si>
+    <t>开启过\n10个宝箱</t>
+  </si>
+  <si>
+    <t>Opened 10 chest</t>
+  </si>
+  <si>
+    <t>10つ宝箱を\n開けた</t>
+  </si>
+  <si>
+    <t>_TextID_Achievement03</t>
+  </si>
+  <si>
+    <t>开启过\n20个宝箱</t>
+  </si>
+  <si>
+    <t>Opened 20 chest</t>
+  </si>
+  <si>
+    <t>20つ宝箱を\n開けた</t>
+  </si>
+  <si>
+    <t>_TextID_Achievement04</t>
+  </si>
+  <si>
+    <t>通关第一关</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Cleared the first stage</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第1レベルクリア</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement05</t>
+  </si>
+  <si>
+    <t>通关第一Boss</t>
+  </si>
+  <si>
+    <t>_TextID_Achievement06</t>
+  </si>
+  <si>
+    <t>在商店购买\n自动开箱功能\并使用</t>
+  </si>
+  <si>
+    <t>在商店购买\n自动开箱功能</t>
+  </si>
+  <si>
+    <t>_TextID_Achievement07</t>
+  </si>
+  <si>
+    <t>通关第三关</t>
+  </si>
+  <si>
     <t>_TextID_Reward00</t>
   </si>
   <si>
-    <t>开启\n三个宝箱</t>
-  </si>
-  <si>
-    <t>Opened three chest</t>
-  </si>
-  <si>
-    <r>
-      <t>3つの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>宝箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>開</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>けた</t>
-    </r>
-  </si>
-  <si>
-    <t>_TextID_ChestQuantity</t>
-  </si>
-  <si>
-    <t>宝箱剩余:</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Remaining Chests:</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>残りの宝箱:</t>
-    </r>
+    <t>获得5个宝箱</t>
   </si>
   <si>
     <t>_TextID_Reward01</t>
   </si>
   <si>
-    <t>装备四种不同装备</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Equip four different items</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>異なる4つの装備を装備する</t>
-    </r>
+    <t>获得20个宝箱</t>
   </si>
   <si>
     <t>_TextID_Reward02</t>
   </si>
   <si>
-    <t>开启过\n十个宝箱</t>
-  </si>
-  <si>
-    <t>Opened ten chest</t>
-  </si>
-  <si>
-    <t>10つ宝箱を\n開けた</t>
-  </si>
-  <si>
-    <t>_TextID_Reward03</t>
-  </si>
-  <si>
-    <t>开启过\n二十个宝箱</t>
-  </si>
-  <si>
-    <t>Opened twenty chest</t>
-  </si>
-  <si>
-    <t>20つ宝箱を\n開けた</t>
-  </si>
-  <si>
-    <t>_TextID_Reward04</t>
-  </si>
-  <si>
-    <t>通关第一关</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>Cleared the first stage</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="Segoe UI"/>
-        <charset val="134"/>
-      </rPr>
-      <t>第1レベルクリア</t>
-    </r>
+    <t>解锁队友系统</t>
   </si>
 </sst>
 </file>
@@ -637,7 +727,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
-      <name val="Segoe UI"/>
+      <name val="MS Gothic"/>
       <charset val="134"/>
     </font>
     <font>
@@ -649,7 +739,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF374151"/>
-      <name val="MS Gothic"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1245,7 +1335,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1253,7 +1343,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1573,13 +1662,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D35"/>
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="31.1666666666667" customWidth="1"/>
@@ -1923,7 +2012,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" ht="15" spans="1:4">
+    <row r="25" ht="17.25" spans="1:4">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -1937,7 +2026,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" ht="15" spans="1:4">
+    <row r="26" spans="1:4">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -1993,7 +2082,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" ht="15" spans="1:4">
+    <row r="30" spans="1:4">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2003,35 +2092,35 @@
       <c r="C30" t="s">
         <v>116</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="31" ht="17.5" spans="1:4">
+    <row r="31" ht="17.25" spans="1:4">
       <c r="A31" t="s">
         <v>118</v>
       </c>
       <c r="B31" t="s">
         <v>119</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="4" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="32" ht="17.5" spans="1:4">
+    <row r="32" ht="17.25" spans="1:4">
       <c r="A32" t="s">
         <v>122</v>
       </c>
       <c r="B32" t="s">
         <v>123</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="4" t="s">
         <v>124</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D32" s="4" t="s">
         <v>125</v>
       </c>
     </row>
@@ -2063,18 +2152,102 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" ht="17.5" spans="1:4">
+    <row r="35" ht="17.25" spans="1:4">
       <c r="A35" t="s">
         <v>134</v>
       </c>
       <c r="B35" t="s">
         <v>135</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="4" t="s">
         <v>136</v>
       </c>
-      <c r="D35" s="1" t="s">
+      <c r="D35" s="4" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" t="s">
+        <v>139</v>
+      </c>
+      <c r="D36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>140</v>
+      </c>
+      <c r="B37" t="s">
+        <v>141</v>
+      </c>
+      <c r="C37" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>143</v>
+      </c>
+      <c r="B38" t="s">
+        <v>144</v>
+      </c>
+      <c r="C38" t="s">
+        <v>144</v>
+      </c>
+      <c r="D38" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
+      <c r="C39" t="s">
+        <v>146</v>
+      </c>
+      <c r="D39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>148</v>
+      </c>
+      <c r="C40" t="s">
+        <v>148</v>
+      </c>
+      <c r="D40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" t="s">
+        <v>149</v>
+      </c>
+      <c r="B41" t="s">
+        <v>150</v>
+      </c>
+      <c r="C41" t="s">
+        <v>150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
   <si>
     <t>ID</t>
   </si>
@@ -308,6 +308,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>どんな</t>
     </r>
     <r>
@@ -645,6 +651,9 @@
     <t>通关第一关</t>
   </si>
   <si>
+    <t>Cleared the first stage</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -652,10 +661,22 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>Cleared the first stage</t>
-    </r>
-  </si>
-  <si>
+      <t>第1レベルクリア</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement05</t>
+  </si>
+  <si>
+    <t>通关第一Boss</t>
+  </si>
+  <si>
+    <t>Cleared the first Boss</t>
+  </si>
+  <si>
+    <r>
+      <t>第</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -663,23 +684,138 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>第1レベルクリア</t>
-    </r>
-  </si>
-  <si>
-    <t>_TextID_Achievement05</t>
-  </si>
-  <si>
-    <t>通关第一Boss</t>
+      <t>1Boss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クリア</t>
+    </r>
   </si>
   <si>
     <t>_TextID_Achievement06</t>
   </si>
   <si>
-    <t>在商店购买\n自动开箱功能\并使用</t>
-  </si>
-  <si>
-    <t>在商店购买\n自动开箱功能</t>
+    <t>在商店购买自动开箱功能\n并使用</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Purchase 'Auto-Unlock Box Feature' at the store and use it</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ショップで</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> '</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自動箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>開</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>ける</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>機能</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>\n</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>購入</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>して</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>使用</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>します</t>
+    </r>
   </si>
   <si>
     <t>_TextID_Achievement07</t>
@@ -688,22 +824,269 @@
     <t>通关第三关</t>
   </si>
   <si>
+    <t>Cleared the third stage</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第3レベルクリア</t>
+    </r>
+  </si>
+  <si>
     <t>_TextID_Reward00</t>
   </si>
   <si>
     <t>获得5个宝箱</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Obtain 5 chests</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱を5つ取得する</t>
+    </r>
+  </si>
+  <si>
     <t>_TextID_Reward01</t>
   </si>
   <si>
+    <t>获得10个宝箱</t>
+  </si>
+  <si>
+    <t>Obtain 10 chests</t>
+  </si>
+  <si>
+    <r>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward02</t>
+  </si>
+  <si>
     <t>获得20个宝箱</t>
   </si>
   <si>
-    <t>_TextID_Reward02</t>
+    <t>Obtain 20 chests</t>
+  </si>
+  <si>
+    <r>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward03</t>
+  </si>
+  <si>
+    <t>获得100个宝箱</t>
+  </si>
+  <si>
+    <t>Obtain 100 chests</t>
+  </si>
+  <si>
+    <r>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward04</t>
   </si>
   <si>
     <t>解锁队友系统</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Unlock the teammate system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲間システムを解除する</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -1335,13 +1718,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
@@ -1662,10 +2046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D41"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
@@ -2166,88 +2550,116 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" ht="17.25" spans="1:4">
       <c r="A36" t="s">
         <v>138</v>
       </c>
       <c r="B36" t="s">
         <v>139</v>
       </c>
-      <c r="C36" t="s">
-        <v>139</v>
-      </c>
-      <c r="D36" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="C36" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:4">
       <c r="A37" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B37" t="s">
-        <v>141</v>
-      </c>
-      <c r="C37" t="s">
-        <v>142</v>
-      </c>
-      <c r="D37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>143</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:4">
       <c r="A38" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="B38" t="s">
-        <v>144</v>
-      </c>
-      <c r="C38" t="s">
-        <v>144</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>147</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:4">
       <c r="A39" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
-        <v>146</v>
-      </c>
-      <c r="C39" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>151</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="D39" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:4">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
-      </c>
-      <c r="C40" t="s">
-        <v>148</v>
-      </c>
-      <c r="D40" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>155</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:4">
       <c r="A41" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
-        <v>150</v>
-      </c>
-      <c r="C41" t="s">
-        <v>150</v>
-      </c>
-      <c r="D41" t="s">
-        <v>150</v>
+        <v>159</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:4">
+      <c r="A42" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:4">
+      <c r="A43" t="s">
+        <v>166</v>
+      </c>
+      <c r="B43" t="s">
+        <v>167</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="D43" s="5" t="s">
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
+++ b/TreasureChestDungeon/Assets/Editor/Dictionary.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11940"/>
+    <workbookView windowWidth="25600" windowHeight="10610"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="242">
   <si>
     <t>ID</t>
   </si>
@@ -154,7 +154,7 @@
     <t>HP</t>
   </si>
   <si>
-    <t>エッチピー</t>
+    <t>体力</t>
   </si>
   <si>
     <t>_TextID_Act</t>
@@ -675,6 +675,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>第</t>
     </r>
     <r>
@@ -715,6 +721,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
       <t>ショップで</t>
     </r>
     <r>
@@ -838,12 +850,119 @@
     </r>
   </si>
   <si>
+    <t>_TextID_Achievement08</t>
+  </si>
+  <si>
+    <t>通关第二Boss</t>
+  </si>
+  <si>
+    <t>Cleared the second Boss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Boss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クリア</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement09</t>
+  </si>
+  <si>
+    <t>上阵一位伙伴</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Add one companion to your team</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲間を一人参戦させる</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Achievement10</t>
+  </si>
+  <si>
+    <t>通关第三Boss</t>
+  </si>
+  <si>
+    <t>Cleared the third Boss</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>第3</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Boss</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クリア</t>
+    </r>
+  </si>
+  <si>
     <t>_TextID_Reward00</t>
   </si>
   <si>
     <t>获得5个宝箱</t>
   </si>
   <si>
+    <t>Obtain 5 chests</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -851,10 +970,46 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>Obtain 5 chests</t>
-    </r>
-  </si>
-  <si>
+      <t>宝箱を5つ取得する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward01</t>
+  </si>
+  <si>
+    <t>获得10个宝箱</t>
+  </si>
+  <si>
+    <t>Obtain 10 chests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>1</t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -862,20 +1017,53 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>宝箱を5つ取得する</t>
-    </r>
-  </si>
-  <si>
-    <t>_TextID_Reward01</t>
-  </si>
-  <si>
-    <t>获得10个宝箱</t>
-  </si>
-  <si>
-    <t>Obtain 10 chests</t>
-  </si>
-  <si>
-    <r>
+      <t>0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward02</t>
+  </si>
+  <si>
+    <t>获得20个宝箱</t>
+  </si>
+  <si>
+    <t>Obtain 20 chests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>宝箱</t>
     </r>
     <r>
@@ -891,18 +1079,83 @@
       <rPr>
         <sz val="12"/>
         <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>つ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>取得</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward03</t>
+  </si>
+  <si>
+    <t>获得100个宝箱</t>
+  </si>
+  <si>
+    <t>Obtain 100 chests</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>を</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
       <t>0</t>
     </r>
     <r>
@@ -934,27 +1187,12 @@
     </r>
   </si>
   <si>
-    <t>_TextID_Reward02</t>
-  </si>
-  <si>
-    <t>获得20个宝箱</t>
-  </si>
-  <si>
-    <t>Obtain 20 chests</t>
-  </si>
-  <si>
-    <r>
-      <t>宝箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>を</t>
-    </r>
+    <t>_TextID_Reward04</t>
+  </si>
+  <si>
+    <t>解锁队友系统</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -962,25 +1200,56 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>20</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>つ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取得</t>
+      <t>Unlock the teammate system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲間システムを解除する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Reward05</t>
+  </si>
+  <si>
+    <t>解锁队友坤哥</t>
+  </si>
+  <si>
+    <t>Unlock the teammate:Bro.Kun</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲間</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クンさんを</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>解除</t>
     </r>
     <r>
       <rPr>
@@ -993,36 +1262,272 @@
     </r>
   </si>
   <si>
-    <t>_TextID_Reward03</t>
-  </si>
-  <si>
-    <t>获得100个宝箱</t>
-  </si>
-  <si>
-    <t>Obtain 100 chests</t>
-  </si>
-  <si>
-    <r>
-      <t>宝箱</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>を</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>10</t>
-    </r>
+    <t>_TextID_Hint00</t>
+  </si>
+  <si>
+    <t>生命值受上衣效果影响</t>
+  </si>
+  <si>
+    <t>hp are affected by the effects of the upper garment.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>体力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はトップスの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>効果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>されます</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint01</t>
+  </si>
+  <si>
+    <t>攻击力受武器效果影响</t>
+  </si>
+  <si>
+    <t>act are affected by the effects of the Weapon.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>攻撃力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>は武器の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>効果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>されます</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint02</t>
+  </si>
+  <si>
+    <t>防御力受鞋子效果影响</t>
+  </si>
+  <si>
+    <t>def are affected by the effects of the LowerGarment.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>防御力</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はボトムスの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>効果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>されます</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint03</t>
+  </si>
+  <si>
+    <t>暴击率受首饰效果影响</t>
+  </si>
+  <si>
+    <t>crit are affected by the effects of the Accessary.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>クリティカル率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>はアクセサリーの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>効果</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>に</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>影響</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>されます</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint04</t>
+  </si>
+  <si>
+    <t>查看宝箱强化路线</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -1030,41 +1535,8 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>0</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>つ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>取得</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FF374151"/>
-        <rFont val="MS Gothic"/>
-        <charset val="134"/>
-      </rPr>
-      <t>する</t>
-    </r>
-  </si>
-  <si>
-    <t>_TextID_Reward04</t>
-  </si>
-  <si>
-    <t>解锁队友系统</t>
+      <t>Check the treasure chest upgrade route.</t>
+    </r>
   </si>
   <si>
     <r>
@@ -1074,8 +1546,14 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>Unlock the teammate system</t>
-    </r>
+      <t>宝箱の強化ルートを確認する</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint05</t>
+  </si>
+  <si>
+    <t>商店</t>
   </si>
   <si>
     <r>
@@ -1085,7 +1563,273 @@
         <rFont val="Segoe UI"/>
         <charset val="134"/>
       </rPr>
-      <t>仲間システムを解除する</t>
+      <t>shop</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>商店</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint06</t>
+  </si>
+  <si>
+    <t>队友系统</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>teammate system</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>仲間システム</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint07</t>
+  </si>
+  <si>
+    <t>设置</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Options</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>設定</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint08</t>
+  </si>
+  <si>
+    <t>钱不够</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Not enough money</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>お</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>が</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>足</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>りません</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint09</t>
+  </si>
+  <si>
+    <t>没宝箱了</t>
+  </si>
+  <si>
+    <t>Not enough chest</t>
+  </si>
+  <si>
+    <t>宝箱が足りません</t>
+  </si>
+  <si>
+    <t>_TextID_Hint10</t>
+  </si>
+  <si>
+    <t>需要解锁上一关</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>You need to unlock the previous level</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>前のステージを解除する必要があります</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint11</t>
+  </si>
+  <si>
+    <t>提升宝箱等级可以提升升级速度与开出宝箱的品质</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>Increasing the chest level can improve the upgrade speed and the quality of the chests opened.</t>
+    </r>
+  </si>
+  <si>
+    <t>宝箱のレベルを上げると、アップグレードの速度と開ける宝箱の品質が向上します</t>
+  </si>
+  <si>
+    <t>_TextID_Hint12</t>
+  </si>
+  <si>
+    <t>经验值,与宝箱等级有关</t>
+  </si>
+  <si>
+    <t>Experience points,which is related to the chest level</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>経験値、宝箱</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>のレベルに</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>関連</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="MS Gothic"/>
+        <charset val="134"/>
+      </rPr>
+      <t>しています</t>
+    </r>
+  </si>
+  <si>
+    <t>_TextID_Hint13</t>
+  </si>
+  <si>
+    <t>自动时可丢弃的等级</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>The level that can be discarded automatically</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FF374151"/>
+        <rFont val="Segoe UI"/>
+        <charset val="134"/>
+      </rPr>
+      <t>自動で破棄できるレベル</t>
     </r>
   </si>
 </sst>
@@ -2046,13 +2790,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D43" sqref="D43"/>
+    <sheetView tabSelected="1" topLeftCell="A42" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="21.3333333333333" customWidth="1"/>
     <col min="2" max="2" width="31.1666666666667" customWidth="1"/>
@@ -2396,7 +3140,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" ht="17.25" spans="1:4">
+    <row r="25" ht="17.5" spans="1:4">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -2410,7 +3154,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" ht="15" spans="1:4">
       <c r="A26" t="s">
         <v>98</v>
       </c>
@@ -2466,7 +3210,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" ht="15" spans="1:4">
       <c r="A30" t="s">
         <v>114</v>
       </c>
@@ -2480,7 +3224,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="31" ht="17.25" spans="1:4">
+    <row r="31" ht="17.5" spans="1:4">
       <c r="A31" t="s">
         <v>118</v>
       </c>
@@ -2494,7 +3238,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="32" ht="17.25" spans="1:4">
+    <row r="32" ht="17.5" spans="1:4">
       <c r="A32" t="s">
         <v>122</v>
       </c>
@@ -2536,7 +3280,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="35" ht="17.25" spans="1:4">
+    <row r="35" ht="17.5" spans="1:4">
       <c r="A35" t="s">
         <v>134</v>
       </c>
@@ -2550,7 +3294,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="36" ht="17.25" spans="1:4">
+    <row r="36" ht="17.5" spans="1:4">
       <c r="A36" t="s">
         <v>138</v>
       </c>
@@ -2564,102 +3308,354 @@
         <v>141</v>
       </c>
     </row>
-    <row r="37" ht="17.25" spans="1:4">
+    <row r="37" ht="17.5" spans="1:4">
       <c r="A37" t="s">
         <v>142</v>
       </c>
       <c r="B37" t="s">
         <v>143</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="4" t="s">
         <v>144</v>
       </c>
       <c r="D37" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="38" ht="17.25" spans="1:4">
+    <row r="38" ht="17.5" spans="1:4">
       <c r="A38" t="s">
         <v>146</v>
       </c>
       <c r="B38" t="s">
         <v>147</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>148</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="39" ht="17.25" spans="1:4">
+    <row r="39" ht="17.5" spans="1:4">
       <c r="A39" t="s">
         <v>150</v>
       </c>
       <c r="B39" t="s">
         <v>151</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D39" s="5" t="s">
+      <c r="D39" s="2" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="40" ht="17.25" spans="1:4">
+    <row r="40" ht="17.5" spans="1:4">
       <c r="A40" t="s">
         <v>154</v>
       </c>
       <c r="B40" t="s">
         <v>155</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="4" t="s">
         <v>156</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="4" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="41" ht="17.25" spans="1:4">
+    <row r="41" ht="17.5" spans="1:4">
       <c r="A41" t="s">
         <v>158</v>
       </c>
       <c r="B41" t="s">
         <v>159</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="4" t="s">
         <v>160</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="42" ht="17.25" spans="1:4">
+    <row r="42" ht="17.5" spans="1:4">
       <c r="A42" t="s">
         <v>162</v>
       </c>
       <c r="B42" t="s">
         <v>163</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="4" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="43" ht="17.25" spans="1:4">
+    <row r="43" ht="17.5" spans="1:4">
       <c r="A43" t="s">
         <v>166</v>
       </c>
       <c r="B43" t="s">
         <v>167</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="D43" s="5" t="s">
+      <c r="D43" s="2" t="s">
         <v>169</v>
+      </c>
+    </row>
+    <row r="44" ht="17.5" spans="1:4">
+      <c r="A44" t="s">
+        <v>170</v>
+      </c>
+      <c r="B44" t="s">
+        <v>171</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="45" ht="17.5" spans="1:4">
+      <c r="A45" t="s">
+        <v>174</v>
+      </c>
+      <c r="B45" t="s">
+        <v>175</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="46" ht="17.5" spans="1:4">
+      <c r="A46" t="s">
+        <v>178</v>
+      </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="47" ht="17.5" spans="1:4">
+      <c r="A47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="48" ht="17.5" spans="1:4">
+      <c r="A48" t="s">
+        <v>186</v>
+      </c>
+      <c r="B48" t="s">
+        <v>187</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49" ht="17.5" spans="1:4">
+      <c r="A49" t="s">
+        <v>190</v>
+      </c>
+      <c r="B49" t="s">
+        <v>191</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="50" ht="17.5" spans="1:4">
+      <c r="A50" t="s">
+        <v>194</v>
+      </c>
+      <c r="B50" t="s">
+        <v>195</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="51" ht="17.5" spans="1:4">
+      <c r="A51" t="s">
+        <v>198</v>
+      </c>
+      <c r="B51" t="s">
+        <v>199</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="52" ht="17.5" spans="1:4">
+      <c r="A52" t="s">
+        <v>202</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="53" ht="17.5" spans="1:4">
+      <c r="A53" t="s">
+        <v>206</v>
+      </c>
+      <c r="B53" t="s">
+        <v>207</v>
+      </c>
+      <c r="C53" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="54" ht="17.5" spans="1:4">
+      <c r="A54" t="s">
+        <v>210</v>
+      </c>
+      <c r="B54" t="s">
+        <v>211</v>
+      </c>
+      <c r="C54" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="55" ht="17.5" spans="1:4">
+      <c r="A55" t="s">
+        <v>214</v>
+      </c>
+      <c r="B55" t="s">
+        <v>215</v>
+      </c>
+      <c r="C55" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="56" ht="17.5" spans="1:4">
+      <c r="A56" t="s">
+        <v>218</v>
+      </c>
+      <c r="B56" t="s">
+        <v>219</v>
+      </c>
+      <c r="C56" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="57" ht="17.5" spans="1:4">
+      <c r="A57" t="s">
+        <v>222</v>
+      </c>
+      <c r="B57" t="s">
+        <v>223</v>
+      </c>
+      <c r="C57" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D57" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="58" ht="17.5" spans="1:4">
+      <c r="A58" t="s">
+        <v>226</v>
+      </c>
+      <c r="B58" t="s">
+        <v>227</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="59" ht="17.5" spans="1:4">
+      <c r="A59" t="s">
+        <v>230</v>
+      </c>
+      <c r="B59" t="s">
+        <v>231</v>
+      </c>
+      <c r="C59" s="4" t="s">
+        <v>232</v>
+      </c>
+      <c r="D59" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="60" ht="17.5" spans="1:4">
+      <c r="A60" t="s">
+        <v>234</v>
+      </c>
+      <c r="B60" t="s">
+        <v>235</v>
+      </c>
+      <c r="C60" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="61" ht="17.5" spans="1:4">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>239</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="D61" s="5" t="s">
+        <v>241</v>
       </c>
     </row>
   </sheetData>
